--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D787E-CBEC-8146-88EA-EEE4B504C094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FC3EC8-44D1-1340-AD56-11C15F20A430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="500" windowWidth="21220" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>Rockwood Music Hall</t>
   </si>
   <si>
-    <t>Grand Maujer</t>
-  </si>
-  <si>
     <t>My funky jazz band plays a palatable 45-minute set</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=MDZrczZvbG9zOGZ1ZTAzaDY4MHVyYjFuOTggam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Grand Maujer Quartet</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,7 +1115,7 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -1173,7 +1173,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -1202,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -1222,22 +1222,22 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1248,13 +1248,13 @@
         <v>0.8125</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="2">
         <v>15</v>
@@ -1263,10 +1263,10 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1280,22 +1280,22 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1306,25 +1306,25 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FC3EC8-44D1-1340-AD56-11C15F20A430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC653C1-3CE8-CA4B-9CB1-DCB1E87BE5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="500" windowWidth="21220" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -70,51 +70,9 @@
     <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=Mzc5dGw1OGVuNmJsN25wYmI2NXJmcTBnZmsgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Baby's All Right</t>
-  </si>
-  <si>
-    <t>Terri Lyne Carrington + Social Science</t>
-  </si>
-  <si>
-    <t>Noisey ruckus</t>
-  </si>
-  <si>
-    <t>$60 (for all)</t>
-  </si>
-  <si>
     <t>GA</t>
   </si>
   <si>
-    <t>https://www.venuepilot.co/events/87850/orders/new#/</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=MWw2ZW5maDZlNTgzMzQyaGRqYmpjdWsyYjggam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Superior Ingredients</t>
-  </si>
-  <si>
-    <t>Mary Halvorson and Tomas Fujiwara</t>
-  </si>
-  <si>
-    <t>Genius playing swoopy guitar</t>
-  </si>
-  <si>
-    <t>Caroline Davis 'Alula'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probably improvised </t>
-  </si>
-  <si>
-    <t>Brooklyn Bowl</t>
-  </si>
-  <si>
-    <t>Ghost-Note</t>
-  </si>
-  <si>
-    <t>Funky funk men</t>
-  </si>
-  <si>
     <t>Rockwood Music Hall</t>
   </si>
   <si>
@@ -160,25 +118,40 @@
     <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=N2RjaGZpMzc2MnQ0NmJuYjVnY2Flcmg2ZWsgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>CRS (Center for Remembering &amp; Sharing)</t>
-  </si>
-  <si>
-    <t>Caroilne Davis and Lorin Benedict</t>
-  </si>
-  <si>
-    <t>"Paradise Laboratory" experimental music series, probably super weird</t>
-  </si>
-  <si>
-    <t>$20 ($10 student)</t>
-  </si>
-  <si>
-    <t>https://www.eventbrite.com/e/crs-presents-paradise-laboratory-caroline-davis-and-lorin-benedict-tickets-767966316927?aff=oddtdtcreator</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=MDZrczZvbG9zOGZ1ZTAzaDY4MHVyYjFuOTggam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Grand Maujer Quartet</t>
+  </si>
+  <si>
+    <t>AMC Lincoln Square 13</t>
+  </si>
+  <si>
+    <t>Oppenheimer</t>
+  </si>
+  <si>
+    <t>Never saw this, last time on the biggest imax in the world</t>
+  </si>
+  <si>
+    <t>https://www.amctheatres.com/showtimes/all/2024-01-26/amc-lincoln-square-13/all/118190489</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=MXZqM3RrM2ttN25jNWlxa3Q5bm0xYWk0YnIgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Not yet, date flexible</t>
+  </si>
+  <si>
+    <t>SoHo Playhouse</t>
+  </si>
+  <si>
+    <t>Jack Tucker: Comedy Standup Hour</t>
+  </si>
+  <si>
+    <t>Really bizarre vaudeville character I think is funny</t>
+  </si>
+  <si>
+    <t>https://ci.ovationtix.com/35583/production/1189220?performanceId=11414690</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=NmZzZG4xY291YnZuOGdncTZpdjFrOXBxMDkgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1026,15 +999,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1097,16 +1071,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>45304</v>
+        <v>45306</v>
       </c>
       <c r="B3" s="1">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1115,216 +1089,129 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>45304</v>
+        <v>45342</v>
       </c>
       <c r="B4" s="1">
-        <v>0.80208333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>45304</v>
+        <v>45310</v>
       </c>
       <c r="B5" s="1">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>45304</v>
+        <v>45317</v>
       </c>
       <c r="B6" s="1">
-        <v>0.96875</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>45306</v>
+        <v>45366</v>
       </c>
       <c r="B7" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="F7" s="2">
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>45342</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>45310</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>45298</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC653C1-3CE8-CA4B-9CB1-DCB1E87BE5AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373ED72-FE09-7348-9EC8-BA7DC2ED0489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="500" windowWidth="21220" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=NmZzZG4xY291YnZuOGdncTZpdjFrOXBxMDkgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Beast</t>
+  </si>
+  <si>
+    <t>New film and Q&amp;A with Lea Seydoux</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=M3JvZTZpNHFmNmU3ZDNuNmpzY2plcWpibTcgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://www.filmlinc.org/films/the-beast-bonello/</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,6 +1226,35 @@
         <v>43</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>45349</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373ED72-FE09-7348-9EC8-BA7DC2ED0489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF7F4C-4407-F34A-A07E-CDC0EDD5285E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="500" windowWidth="21220" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,36 @@
   </si>
   <si>
     <t>https://www.filmlinc.org/films/the-beast-bonello/</t>
+  </si>
+  <si>
+    <t>Brooklyn Bowl</t>
+  </si>
+  <si>
+    <t>Knower (full band)</t>
+  </si>
+  <si>
+    <t>Now the government knows</t>
+  </si>
+  <si>
+    <t>https://www.ticketweb.com/event/knower-brooklyn-bowl-tickets/13510913?pl=bbowl</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzY4c2owZ3BsNnQwamdiOWc2NTE0OGI5azZoMWphYjlvNzRzMzhiYTE2Y28zNmNhNTY4czQ0ZHE0NzAgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzZvcTQyZGhrNmdwajZiOWc4OG8zNGI5azc0cjNhYmEyOHAyNGFiOXA2OTBrY2RxNDZvczM2ZGkzNjQgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Blue Note</t>
+  </si>
+  <si>
+    <t>Corrine Bailey Rae</t>
+  </si>
+  <si>
+    <t>Records, they're about to be put on</t>
+  </si>
+  <si>
+    <t>https://www.bluenotejazz.com/nyc/shows/?eid=13486488</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,6 +1285,64 @@
         <v>46</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45408</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>45338</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF7F4C-4407-F34A-A07E-CDC0EDD5285E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16735510-72E6-984D-ACFA-82372E9BB482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="500" windowWidth="21220" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,24 @@
   </si>
   <si>
     <t>https://www.bluenotejazz.com/nyc/shows/?eid=13486488</t>
+  </si>
+  <si>
+    <t>The Stone</t>
+  </si>
+  <si>
+    <t>Billy Ray Valentine Trio</t>
+  </si>
+  <si>
+    <t>Tomas Fujiwara, Mary Halvorson, and Henry Fraser</t>
+  </si>
+  <si>
+    <t>Door (cash)</t>
+  </si>
+  <si>
+    <t>http://thestonenyc.com/calendar.php</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=MDk0YXZkY3BrMjJvdDI2aTJnZmY3cHZqNWkgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,6 +1361,35 @@
         <v>53</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>45336</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16735510-72E6-984D-ACFA-82372E9BB482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CD3A6C-E8F7-8A4E-A840-2D15D2FAB4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="500" windowWidth="21220" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=MDk0YXZkY3BrMjJvdDI2aTJnZmY3cHZqNWkgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Stamptown</t>
+  </si>
+  <si>
+    <t>The Bell House</t>
+  </si>
+  <si>
+    <t>Wild vaudeville show</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/stamptown-tickets-793513278577?aff=ebdsoporgprofile</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzZ0bG5hcXJsZTVwNmNwYjRkaG1qNHBocGVobTZvY2hqNjltamVwOWtkOWo2c29obWVwcW1jcTNsY3BtNjRjYjI2cHI2ZXNybDcxcG02b2JhZTlqNm1yMzhlZ3E3OHIxbWQ0c21lcTFuZTBvMzAgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt; src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,6 +1405,35 @@
         <v>63</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>45376</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CD3A6C-E8F7-8A4E-A840-2D15D2FAB4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC7C61-A90D-984A-A415-F01431B625AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="500" windowWidth="21220" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="500" windowWidth="23640" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="picks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -139,21 +139,6 @@
     <t>Not yet, date flexible</t>
   </si>
   <si>
-    <t>SoHo Playhouse</t>
-  </si>
-  <si>
-    <t>Jack Tucker: Comedy Standup Hour</t>
-  </si>
-  <si>
-    <t>Really bizarre vaudeville character I think is funny</t>
-  </si>
-  <si>
-    <t>https://ci.ovationtix.com/35583/production/1189220?performanceId=11414690</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=NmZzZG4xY291YnZuOGdncTZpdjFrOXBxMDkgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>The Beast</t>
   </si>
   <si>
@@ -226,7 +211,7 @@
     <t>https://www.eventbrite.com/e/stamptown-tickets-793513278577?aff=ebdsoporgprofile</t>
   </si>
   <si>
-    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzZ0bG5hcXJsZTVwNmNwYjRkaG1qNHBocGVobTZvY2hqNjltamVwOWtkOWo2c29obWVwcW1jcTNsY3BtNjRjYjI2cHI2ZXNybDcxcG02b2JhZTlqNm1yMzhlZ3E3OHIxbWQ0c21lcTFuZTBvMzAgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt; src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzZ0bG5hcXJsZTVwNmNwYjRkaG1qNHBocGVobTZvY2hqNjltamVwOWtkOWo2c29obWVwcW1jcTNsY3BtNjRjYjI2cHI2ZXNybDcxcG02b2JhZTlqNm1yMzhlZ3E3OHIxbWQ0c21lcTFuZTBvMzAgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt; </t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1262,42 +1247,42 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>45366</v>
+        <v>45349</v>
       </c>
       <c r="B7" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" s="2">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>45349</v>
+        <v>45408</v>
       </c>
       <c r="B8" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
@@ -1306,132 +1291,103 @@
         <v>45</v>
       </c>
       <c r="F8" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>45408</v>
+        <v>45338</v>
       </c>
       <c r="B9" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2">
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>45338</v>
+        <v>45336</v>
       </c>
       <c r="B10" s="1">
-        <v>0.9375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
-      </c>
-      <c r="F10" s="2">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>45336</v>
+        <v>45376</v>
       </c>
       <c r="B11" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>62</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>45376</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="2">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC7C61-A90D-984A-A415-F01431B625AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C829C-9764-8B45-A3DD-38AAD377896C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="500" windowWidth="23640" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -139,18 +139,6 @@
     <t>Not yet, date flexible</t>
   </si>
   <si>
-    <t>The Beast</t>
-  </si>
-  <si>
-    <t>New film and Q&amp;A with Lea Seydoux</t>
-  </si>
-  <si>
-    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=M3JvZTZpNHFmNmU3ZDNuNmpzY2plcWpibTcgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>https://www.filmlinc.org/films/the-beast-bonello/</t>
-  </si>
-  <si>
     <t>Brooklyn Bowl</t>
   </si>
   <si>
@@ -212,6 +200,24 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzZ0bG5hcXJsZTVwNmNwYjRkaG1qNHBocGVobTZvY2hqNjltamVwOWtkOWo2c29obWVwcW1jcTNsY3BtNjRjYjI2cHI2ZXNybDcxcG02b2JhZTlqNm1yMzhlZ3E3OHIxbWQ0c21lcTFuZTBvMzAgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Schermerhorn Hall</t>
+  </si>
+  <si>
+    <t>John's defense</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>I'm defending my dissertation (hmu for zoom link)</t>
+  </si>
+  <si>
+    <t>https://psychology.columbia.edu/content/john-thorp</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=MWF2ZDU4dG1tMmYxZDJrMGtjMzJxODBoYmsgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,68 +1253,68 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>45349</v>
+        <v>45408</v>
       </c>
       <c r="B7" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2">
         <v>40</v>
       </c>
-      <c r="F7" s="2">
-        <v>17</v>
-      </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>45408</v>
+        <v>45338</v>
       </c>
       <c r="B8" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2">
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>45338</v>
+        <v>45336</v>
       </c>
       <c r="B9" s="1">
-        <v>0.9375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
@@ -1320,74 +1326,103 @@
         <v>51</v>
       </c>
       <c r="F9" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>45336</v>
+        <v>45376</v>
       </c>
       <c r="B10" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>45376</v>
+        <v>45385</v>
       </c>
       <c r="B11" s="1">
-        <v>0.8125</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="I11" t="s">
-        <v>63</v>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C829C-9764-8B45-A3DD-38AAD377896C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE217979-ED5C-DF4D-8021-BABD2B2E4C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="500" windowWidth="23640" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="520" windowWidth="23640" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="picks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=MWF2ZDU4dG1tMmYxZDJrMGtjMzJxODBoYmsgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Ramy Youssef</t>
+  </si>
+  <si>
+    <t>Thoughtful creator of Ramy with a new show</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/ramy-youssef-tickets-858449273887?aff=eemailordconf&amp;ref=eemailordconf&amp;utm_campaign=order_confirm&amp;utm_medium=email&amp;utm_source=eventbrite&amp;utm_term=viewevent</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzZjcmpjaDFwNmdwNDJiOWc2c3JrNmI5azhvb2owYmEyNmdxajRiOWg3NTFqY2dobDY4cmplZ3EyNmcgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,7 +1410,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B12" s="1">
         <v>0.60416666666666663</v>
@@ -1423,6 +1435,35 @@
       </c>
       <c r="I12" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>45365</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/picks.xlsx
+++ b/picks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnthorp/Documents/Music/johnspicks/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE217979-ED5C-DF4D-8021-BABD2B2E4C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B066E6A2-5E7C-7446-A4BB-F80C3F921E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="520" windowWidth="23640" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="500" windowWidth="23640" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="picks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -230,6 +230,54 @@
   </si>
   <si>
     <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzZjcmpjaDFwNmdwNDJiOWc2c3JrNmI5azhvb2owYmEyNmdxajRiOWg3NTFqY2dobDY4cmplZ3EyNmcgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=NWI5am9mbW9pYzZzdDRjOWswODVoa2NvYnIgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/maria-bamford-tickets-879759322817</t>
+  </si>
+  <si>
+    <t>The queen of character-driven comedy on mental health</t>
+  </si>
+  <si>
+    <t>Maria Bamford</t>
+  </si>
+  <si>
+    <t>Dune: Part Two</t>
+  </si>
+  <si>
+    <t>Timothee Chalemet: Part Deux</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>https://www.amctheatres.com/movies/dune-part-two-68123/showtimes/dune-part-two-68123/2024-04-23/amc-lincoln-square-13/all/120503522</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=M2I1Y2lma2Jmb2M5dW1ua2FlM3N0azlqcjUgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Don't stop 'til you get enough</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/stamptown-tickets-871041828557?aff=odcleoeventsincollection</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzYwcTQ4ZTI1OGNvM2liYTE2bDJqZ2I5azZoMmowYmEyOG9yMzBiYTY4OTFqNGdxNDY4cGtjaDFrNjQgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Caleb Hearon Runs His Hour</t>
+  </si>
+  <si>
+    <t>POV a front-facing video star pivots to standup</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.com/e/caleb-hearon-runs-his-hour-tickets-871968740977</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://calendar.google.com/calendar/event?action=TEMPLATE&amp;amp;tmeid=XzZ0bG5hcXJsZTVwNmNwYjRkaG1qNHBocGVnbzc0czNrNmhrbW1lYmY3MWdtNGViZDZ0b211cjNqZDRvbW9ycmZjdHA2Z3AxbmQ5bDc0cmJhNmxxbjBkcmdkdG8zY2U5cGN0aWppczlrYzlwbWUgam9obi5uLnRob3JwQG0&amp;amp;tmsrc=john.n.thorp%40gmail.com"&gt;&lt;img border="0" src="https://www.google.com/calendar/images/ext/gc_button1_en.gif"&gt;&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -240,7 +288,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +419,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,7 +729,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -716,14 +772,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -757,6 +815,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1077,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,7 +1525,126 @@
         <v>69</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>45598</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>45405</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>45426</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>45401</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="2">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H14" r:id="rId1" display="https://www.google.com/url?q=https://www.eventbrite.com/e/maria-bamford-tickets-879759322817&amp;sa=D&amp;source=calendar&amp;usd=2&amp;usg=AOvVaw37hkGNt_rUyyZS8qHHBq48" xr:uid="{18098D9C-BE86-064C-A479-43F51EF304E3}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>